--- a/analysis/5.1/td_0.10s.xlsx
+++ b/analysis/5.1/td_0.10s.xlsx
@@ -74,7 +74,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D56"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="true"/>
@@ -172,13 +172,13 @@
         <v>30.100000000000001</v>
       </c>
       <c r="B7">
-        <v>1.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C7">
         <v>0.099999999999999992</v>
       </c>
       <c r="D7">
-        <v>270.95392000000294</v>
+        <v>388.39403999999956</v>
       </c>
     </row>
     <row r="8">
@@ -186,13 +186,13 @@
         <v>30.100000000000001</v>
       </c>
       <c r="B8">
-        <v>2.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C8">
         <v>0.099999999999999992</v>
       </c>
       <c r="D8">
-        <v>288.63376000000301</v>
+        <v>270.95392000000294</v>
       </c>
     </row>
     <row r="9">
@@ -200,13 +200,13 @@
         <v>30.100000000000001</v>
       </c>
       <c r="B9">
-        <v>3.1000000000000001</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C9">
         <v>0.099999999999999992</v>
       </c>
       <c r="D9">
-        <v>275.83364000000194</v>
+        <v>288.63376000000301</v>
       </c>
     </row>
     <row r="10">
@@ -214,27 +214,27 @@
         <v>30.100000000000001</v>
       </c>
       <c r="B10">
-        <v>4.0999999999999996</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C10">
         <v>0.099999999999999992</v>
       </c>
       <c r="D10">
-        <v>260.87806666666478</v>
+        <v>275.83364000000194</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>40.100000000000001</v>
+        <v>30.100000000000001</v>
       </c>
       <c r="B11">
-        <v>0.10000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C11">
         <v>0.099999999999999992</v>
       </c>
       <c r="D11">
-        <v>256.62159999999523</v>
+        <v>260.87806666666478</v>
       </c>
     </row>
     <row r="12">
@@ -242,13 +242,13 @@
         <v>40.100000000000001</v>
       </c>
       <c r="B12">
-        <v>1.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C12">
         <v>0.099999999999999992</v>
       </c>
       <c r="D12">
-        <v>218.74519999999859</v>
+        <v>256.62159999999523</v>
       </c>
     </row>
     <row r="13">
@@ -256,13 +256,13 @@
         <v>40.100000000000001</v>
       </c>
       <c r="B13">
-        <v>2.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C13">
         <v>0.099999999999999992</v>
       </c>
       <c r="D13">
-        <v>279.17244000000028</v>
+        <v>218.74519999999859</v>
       </c>
     </row>
     <row r="14">
@@ -270,13 +270,13 @@
         <v>40.100000000000001</v>
       </c>
       <c r="B14">
-        <v>3.1000000000000001</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C14">
         <v>0.099999999999999992</v>
       </c>
       <c r="D14">
-        <v>192.77666000000019</v>
+        <v>279.17244000000028</v>
       </c>
     </row>
     <row r="15">
@@ -284,27 +284,27 @@
         <v>40.100000000000001</v>
       </c>
       <c r="B15">
-        <v>4.0999999999999996</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C15">
         <v>0.099999999999999992</v>
       </c>
       <c r="D15">
-        <v>276.73220000000259</v>
+        <v>192.77666000000019</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>50.100000000000001</v>
+        <v>40.100000000000001</v>
       </c>
       <c r="B16">
-        <v>0.10000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C16">
         <v>0.099999999999999992</v>
       </c>
       <c r="D16">
-        <v>280.41144000000179</v>
+        <v>276.73220000000259</v>
       </c>
     </row>
     <row r="17">
@@ -312,13 +312,13 @@
         <v>50.100000000000001</v>
       </c>
       <c r="B17">
-        <v>1.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C17">
         <v>0.099999999999999992</v>
       </c>
       <c r="D17">
-        <v>279.41132000000073</v>
+        <v>280.41144000000179</v>
       </c>
     </row>
     <row r="18">
@@ -326,13 +326,13 @@
         <v>50.100000000000001</v>
       </c>
       <c r="B18">
-        <v>2.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C18">
         <v>0.099999999999999992</v>
       </c>
       <c r="D18">
-        <v>229.60566666666716</v>
+        <v>279.41132000000073</v>
       </c>
     </row>
     <row r="19">
@@ -340,13 +340,13 @@
         <v>50.100000000000001</v>
       </c>
       <c r="B19">
-        <v>3.1000000000000001</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C19">
         <v>0.099999999999999992</v>
       </c>
       <c r="D19">
-        <v>276.49108000000308</v>
+        <v>229.60566666666716</v>
       </c>
     </row>
     <row r="20">
@@ -354,13 +354,13 @@
         <v>50.100000000000001</v>
       </c>
       <c r="B20">
-        <v>4.0999999999999996</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C20">
         <v>0.099999999999999992</v>
       </c>
       <c r="D20">
-        <v>276.53096000000204</v>
+        <v>276.49108000000308</v>
       </c>
     </row>
     <row r="21">
@@ -368,27 +368,27 @@
         <v>50.100000000000001</v>
       </c>
       <c r="B21">
-        <v>5.0999999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C21">
         <v>0.099999999999999992</v>
       </c>
       <c r="D21">
-        <v>278.55084000000096</v>
+        <v>276.53096000000204</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>60.100000000000001</v>
+        <v>50.100000000000001</v>
       </c>
       <c r="B22">
-        <v>0.10000000000000001</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C22">
         <v>0.099999999999999992</v>
       </c>
       <c r="D22">
-        <v>231.48839999999643</v>
+        <v>278.55084000000096</v>
       </c>
     </row>
     <row r="23">
@@ -396,13 +396,13 @@
         <v>60.100000000000001</v>
       </c>
       <c r="B23">
-        <v>1.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C23">
         <v>0.099999999999999992</v>
       </c>
       <c r="D23">
-        <v>276.87016000000233</v>
+        <v>231.48839999999643</v>
       </c>
     </row>
     <row r="24">
@@ -410,13 +410,13 @@
         <v>60.100000000000001</v>
       </c>
       <c r="B24">
-        <v>2.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C24">
         <v>0.099999999999999992</v>
       </c>
       <c r="D24">
-        <v>241.53459999999853</v>
+        <v>276.87016000000233</v>
       </c>
     </row>
     <row r="25">
@@ -424,13 +424,13 @@
         <v>60.100000000000001</v>
       </c>
       <c r="B25">
-        <v>3.1000000000000001</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C25">
         <v>0.099999999999999992</v>
       </c>
       <c r="D25">
-        <v>275.22992000000028</v>
+        <v>241.53459999999853</v>
       </c>
     </row>
     <row r="26">
@@ -438,13 +438,13 @@
         <v>60.100000000000001</v>
       </c>
       <c r="B26">
-        <v>4.0999999999999996</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C26">
         <v>0.099999999999999992</v>
       </c>
       <c r="D26">
-        <v>250.55006666666407</v>
+        <v>275.22992000000028</v>
       </c>
     </row>
     <row r="27">
@@ -452,27 +452,27 @@
         <v>60.100000000000001</v>
       </c>
       <c r="B27">
-        <v>5.0999999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C27">
         <v>0.099999999999999992</v>
       </c>
       <c r="D27">
-        <v>245.60872000000148</v>
+        <v>250.55006666666407</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>70.099999999999994</v>
+        <v>60.100000000000001</v>
       </c>
       <c r="B28">
-        <v>0.10000000000000001</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C28">
         <v>0.099999999999999992</v>
       </c>
       <c r="D28">
-        <v>213.57839999999936</v>
+        <v>245.60872000000148</v>
       </c>
     </row>
     <row r="29">
@@ -480,13 +480,13 @@
         <v>70.099999999999994</v>
       </c>
       <c r="B29">
-        <v>1.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C29">
         <v>0.099999999999999992</v>
       </c>
       <c r="D29">
-        <v>195.26808000000176</v>
+        <v>213.57839999999936</v>
       </c>
     </row>
     <row r="30">
@@ -494,13 +494,13 @@
         <v>70.099999999999994</v>
       </c>
       <c r="B30">
-        <v>2.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C30">
         <v>0.099999999999999992</v>
       </c>
       <c r="D30">
-        <v>195.50796000000068</v>
+        <v>195.26808000000176</v>
       </c>
     </row>
     <row r="31">
@@ -508,13 +508,13 @@
         <v>70.099999999999994</v>
       </c>
       <c r="B31">
-        <v>3.1000000000000001</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C31">
         <v>0.099999999999999992</v>
       </c>
       <c r="D31">
-        <v>195.44788000000295</v>
+        <v>195.50796000000068</v>
       </c>
     </row>
     <row r="32">
@@ -522,13 +522,13 @@
         <v>70.099999999999994</v>
       </c>
       <c r="B32">
-        <v>4.0999999999999996</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C32">
         <v>0.099999999999999992</v>
       </c>
       <c r="D32">
-        <v>200.79269090909156</v>
+        <v>195.44788000000295</v>
       </c>
     </row>
     <row r="33">
@@ -536,27 +536,27 @@
         <v>70.099999999999994</v>
       </c>
       <c r="B33">
-        <v>5.0999999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C33">
         <v>0.099999999999999992</v>
       </c>
       <c r="D33">
-        <v>200.54831111111292</v>
+        <v>200.79269090909156</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>80.099999999999994</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="B34">
-        <v>0.10000000000000001</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C34">
         <v>0.099999999999999992</v>
       </c>
       <c r="D34">
-        <v>200.63519999999934</v>
+        <v>200.54831111111292</v>
       </c>
     </row>
     <row r="35">
@@ -564,13 +564,13 @@
         <v>80.099999999999994</v>
       </c>
       <c r="B35">
-        <v>1.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C35">
         <v>0.099999999999999992</v>
       </c>
       <c r="D35">
-        <v>244.02507999999887</v>
+        <v>200.63519999999934</v>
       </c>
     </row>
     <row r="36">
@@ -578,13 +578,13 @@
         <v>80.099999999999994</v>
       </c>
       <c r="B36">
-        <v>2.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C36">
         <v>0.099999999999999992</v>
       </c>
       <c r="D36">
-        <v>200.63200000000001</v>
+        <v>244.02507999999887</v>
       </c>
     </row>
     <row r="37">
@@ -592,13 +592,13 @@
         <v>80.099999999999994</v>
       </c>
       <c r="B37">
-        <v>3.1000000000000001</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C37">
         <v>0.099999999999999992</v>
       </c>
       <c r="D37">
-        <v>218.45679999999919</v>
+        <v>200.63200000000001</v>
       </c>
     </row>
     <row r="38">
@@ -606,13 +606,13 @@
         <v>80.099999999999994</v>
       </c>
       <c r="B38">
-        <v>4.0999999999999996</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C38">
         <v>0.099999999999999992</v>
       </c>
       <c r="D38">
-        <v>211.65079999999955</v>
+        <v>218.45679999999919</v>
       </c>
     </row>
     <row r="39">
@@ -620,27 +620,27 @@
         <v>80.099999999999994</v>
       </c>
       <c r="B39">
-        <v>5.0999999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C39">
         <v>0.099999999999999992</v>
       </c>
       <c r="D39">
-        <v>199.46588571428384</v>
+        <v>211.65079999999955</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>90.099999999999994</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="B40">
-        <v>0.10000000000000001</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C40">
         <v>0.099999999999999992</v>
       </c>
       <c r="D40">
-        <v>226.49626666666722</v>
+        <v>199.46588571428384</v>
       </c>
     </row>
     <row r="41">
@@ -648,13 +648,13 @@
         <v>90.099999999999994</v>
       </c>
       <c r="B41">
-        <v>1.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C41">
         <v>0.099999999999999992</v>
       </c>
       <c r="D41">
-        <v>226.54933333333435</v>
+        <v>226.49626666666722</v>
       </c>
     </row>
     <row r="42">
@@ -662,13 +662,13 @@
         <v>90.099999999999994</v>
       </c>
       <c r="B42">
-        <v>2.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C42">
         <v>0.099999999999999992</v>
       </c>
       <c r="D42">
-        <v>226.58219999999989</v>
+        <v>226.54933333333435</v>
       </c>
     </row>
     <row r="43">
@@ -676,13 +676,13 @@
         <v>90.099999999999994</v>
       </c>
       <c r="B43">
-        <v>3.1000000000000001</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C43">
         <v>0.099999999999999992</v>
       </c>
       <c r="D43">
-        <v>198.78033333333241</v>
+        <v>226.58219999999989</v>
       </c>
     </row>
     <row r="44">
@@ -690,13 +690,13 @@
         <v>90.099999999999994</v>
       </c>
       <c r="B44">
-        <v>4.0999999999999996</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C44">
         <v>0.099999999999999992</v>
       </c>
       <c r="D44">
-        <v>199.48188571428577</v>
+        <v>198.78033333333241</v>
       </c>
     </row>
     <row r="45">
@@ -704,27 +704,27 @@
         <v>90.099999999999994</v>
       </c>
       <c r="B45">
-        <v>5.0999999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C45">
         <v>0.099999999999999992</v>
       </c>
       <c r="D45">
-        <v>244.06379999999945</v>
+        <v>199.48188571428577</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>100.09999999999999</v>
+        <v>90.099999999999994</v>
       </c>
       <c r="B46">
-        <v>0.10000000000000001</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C46">
         <v>0.099999999999999992</v>
       </c>
       <c r="D46">
-        <v>198.67610909090862</v>
+        <v>244.06379999999945</v>
       </c>
     </row>
     <row r="47">
@@ -732,13 +732,13 @@
         <v>100.09999999999999</v>
       </c>
       <c r="B47">
-        <v>1.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C47">
         <v>0.099999999999999992</v>
       </c>
       <c r="D47">
-        <v>193.62544000000071</v>
+        <v>198.67610909090862</v>
       </c>
     </row>
     <row r="48">
@@ -746,13 +746,13 @@
         <v>100.09999999999999</v>
       </c>
       <c r="B48">
-        <v>2.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C48">
         <v>0.099999999999999992</v>
       </c>
       <c r="D48">
-        <v>198.69816666666787</v>
+        <v>193.62544000000071</v>
       </c>
     </row>
     <row r="49">
@@ -760,27 +760,27 @@
         <v>100.09999999999999</v>
       </c>
       <c r="B49">
-        <v>3.1000000000000001</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C49">
         <v>0.099999999999999992</v>
       </c>
       <c r="D49">
-        <v>193.92535999999851</v>
+        <v>198.69816666666787</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>110.09999999999999</v>
+        <v>100.09999999999999</v>
       </c>
       <c r="B50">
-        <v>0.10000000000000001</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C50">
         <v>0.099999999999999992</v>
       </c>
       <c r="D50">
-        <v>197.66896000000057</v>
+        <v>193.92535999999851</v>
       </c>
     </row>
     <row r="51">
@@ -788,13 +788,13 @@
         <v>110.09999999999999</v>
       </c>
       <c r="B51">
-        <v>1.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C51">
         <v>0.099999999999999992</v>
       </c>
       <c r="D51">
-        <v>192.38492000000204</v>
+        <v>197.66896000000057</v>
       </c>
     </row>
     <row r="52">
@@ -802,13 +802,13 @@
         <v>110.09999999999999</v>
       </c>
       <c r="B52">
-        <v>2.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C52">
         <v>0.099999999999999992</v>
       </c>
       <c r="D52">
-        <v>197.61288000000064</v>
+        <v>192.38492000000204</v>
       </c>
     </row>
     <row r="53">
@@ -816,27 +816,27 @@
         <v>110.09999999999999</v>
       </c>
       <c r="B53">
-        <v>3.1000000000000001</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C53">
         <v>0.099999999999999992</v>
       </c>
       <c r="D53">
-        <v>192.90483999999984</v>
+        <v>197.61288000000064</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>120.09999999999999</v>
+        <v>110.09999999999999</v>
       </c>
       <c r="B54">
-        <v>0.10000000000000001</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C54">
         <v>0.099999999999999992</v>
       </c>
       <c r="D54">
-        <v>188.08746666666622</v>
+        <v>192.90483999999984</v>
       </c>
     </row>
     <row r="55">
@@ -844,12 +844,26 @@
         <v>120.09999999999999</v>
       </c>
       <c r="B55">
-        <v>1.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C55">
         <v>0.099999999999999992</v>
       </c>
       <c r="D55">
+        <v>188.08746666666622</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>120.09999999999999</v>
+      </c>
+      <c r="B56">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C56">
+        <v>0.099999999999999992</v>
+      </c>
+      <c r="D56">
         <v>187.75784347826067</v>
       </c>
     </row>
